--- a/Civilworks cost/Expenditure Check.xlsx
+++ b/Civilworks cost/Expenditure Check.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -413,20 +413,18 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -435,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -448,13 +446,19 @@
     <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -738,21 +742,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R7:R8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" customWidth="1"/>
-    <col min="2" max="2" width="46.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
     <col min="3" max="8" width="21" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="12.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -783,8 +788,10 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K1" s="10"/>
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3111302</v>
       </c>
@@ -815,11 +822,11 @@
       <c r="J2" s="2">
         <v>50000</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="11">
         <f>ROUND(J2/100000,2)</f>
         <v>0.5</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="5">
         <v>0.5</v>
       </c>
       <c r="M2" t="str">
@@ -827,7 +834,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3111327</v>
       </c>
@@ -858,11 +865,11 @@
       <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="11">
         <f t="shared" ref="K3:K66" si="0">ROUND(J3/100000,2)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="5">
         <v>0</v>
       </c>
       <c r="M3" t="str">
@@ -870,7 +877,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3111338</v>
       </c>
@@ -901,11 +908,11 @@
       <c r="J4" s="2">
         <v>1399999</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>14</v>
       </c>
       <c r="M4" t="str">
@@ -913,7 +920,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -944,11 +951,11 @@
       <c r="J5" s="2">
         <v>1449999</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="11">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="12">
         <f>SUM(L2:L4)</f>
         <v>14.5</v>
       </c>
@@ -957,7 +964,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3241101</v>
       </c>
@@ -988,11 +995,11 @@
       <c r="J6" s="2">
         <v>1498117</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="11">
         <f t="shared" si="0"/>
         <v>14.98</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="6">
         <v>14.98</v>
       </c>
       <c r="M6" t="str">
@@ -1000,7 +1007,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3211129</v>
       </c>
@@ -1031,11 +1038,11 @@
       <c r="J7" s="2">
         <v>3420840</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="11">
         <f t="shared" si="0"/>
         <v>34.21</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="6">
         <v>34.21</v>
       </c>
       <c r="M7" t="str">
@@ -1043,7 +1050,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3821103</v>
       </c>
@@ -1072,25 +1079,25 @@
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>19363849.149999999</v>
-      </c>
-      <c r="K8" s="5">
-        <f t="shared" si="0"/>
-        <v>193.64</v>
-      </c>
-      <c r="L8" s="9">
+        <v>19159791.149999999</v>
+      </c>
+      <c r="K8" s="21">
+        <f t="shared" si="0"/>
+        <v>191.6</v>
+      </c>
+      <c r="L8" s="7">
         <v>177.18</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="1"/>
         <v>Not Ok</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="8">
         <f>L8-K8</f>
-        <v>-16.45999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>-14.419999999999987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3211119</v>
       </c>
@@ -1121,11 +1128,11 @@
       <c r="J9" s="2">
         <v>48480</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="11">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="6">
         <v>0.48</v>
       </c>
       <c r="M9" t="str">
@@ -1133,7 +1140,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3211120</v>
       </c>
@@ -1164,11 +1171,11 @@
       <c r="J10" s="2">
         <v>7148</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="11">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M10" t="str">
@@ -1176,7 +1183,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3211117</v>
       </c>
@@ -1207,11 +1214,11 @@
       <c r="J11" s="2">
         <v>9855</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="11">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="6">
         <v>0.1</v>
       </c>
       <c r="M11" t="str">
@@ -1219,7 +1226,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3221104</v>
       </c>
@@ -1250,11 +1257,11 @@
       <c r="J12" s="2">
         <v>16877</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="11">
         <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="6">
         <v>0.17</v>
       </c>
       <c r="M12" t="str">
@@ -1262,7 +1269,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3211115</v>
       </c>
@@ -1293,19 +1300,23 @@
       <c r="J13" s="2">
         <v>55515</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="21">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="7">
         <v>0.55000000000000004</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="1"/>
         <v>Not Ok</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N13" s="8">
+        <f>L13-K13</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3211113</v>
       </c>
@@ -1336,11 +1347,11 @@
       <c r="J14" s="2">
         <v>288819</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="11">
         <f t="shared" si="0"/>
         <v>2.89</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="6">
         <v>2.89</v>
       </c>
       <c r="M14" t="str">
@@ -1348,7 +1359,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3243102</v>
       </c>
@@ -1377,21 +1388,25 @@
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>290870</v>
-      </c>
-      <c r="K15" s="5">
-        <f t="shared" si="0"/>
-        <v>2.91</v>
-      </c>
-      <c r="L15" s="9">
+        <v>376148</v>
+      </c>
+      <c r="K15" s="21">
+        <f t="shared" si="0"/>
+        <v>3.76</v>
+      </c>
+      <c r="L15" s="7">
         <v>4.0199999999999996</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="1"/>
         <v>Not Ok</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N15" s="8">
+        <f>L15-K15</f>
+        <v>0.25999999999999979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3243101</v>
       </c>
@@ -1420,21 +1435,25 @@
         <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>2529436</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" si="0"/>
-        <v>25.29</v>
-      </c>
-      <c r="L16" s="9">
+        <v>2444158</v>
+      </c>
+      <c r="K16" s="21">
+        <f t="shared" si="0"/>
+        <v>24.44</v>
+      </c>
+      <c r="L16" s="7">
         <v>24.18</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="1"/>
         <v>Not Ok</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="8">
+        <f>L16-K16</f>
+        <v>-0.26000000000000156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3221108</v>
       </c>
@@ -1465,11 +1484,11 @@
       <c r="J17" s="2">
         <v>90777</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="11">
         <f t="shared" si="0"/>
         <v>0.91</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="6">
         <v>0.91</v>
       </c>
       <c r="M17" t="str">
@@ -1477,7 +1496,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3255102</v>
       </c>
@@ -1508,11 +1527,11 @@
       <c r="J18" s="2">
         <v>50007</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="11">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="6">
         <v>0.5</v>
       </c>
       <c r="M18" t="str">
@@ -1520,7 +1539,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3255104</v>
       </c>
@@ -1551,11 +1570,11 @@
       <c r="J19" s="2">
         <v>1994980</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="11">
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="6">
         <v>19.95</v>
       </c>
       <c r="M19" t="str">
@@ -1563,7 +1582,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3211127</v>
       </c>
@@ -1594,11 +1613,11 @@
       <c r="J20" s="2">
         <v>19629</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="11">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="6">
         <v>0.2</v>
       </c>
       <c r="M20" t="str">
@@ -1606,7 +1625,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3231201</v>
       </c>
@@ -1637,11 +1656,11 @@
       <c r="J21" s="2">
         <v>0</v>
       </c>
-      <c r="K21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="6">
+      <c r="K21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
         <v>0</v>
       </c>
       <c r="M21" t="str">
@@ -1649,7 +1668,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3231201</v>
       </c>
@@ -1680,11 +1699,11 @@
       <c r="J22" s="2">
         <v>2221000</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="11">
         <f t="shared" si="0"/>
         <v>22.21</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="12">
         <v>22.21</v>
       </c>
       <c r="M22" t="str">
@@ -1692,7 +1711,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3231201</v>
       </c>
@@ -1723,15 +1742,15 @@
       <c r="J23" s="2">
         <v>33811000</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="11">
         <f>ROUND(J23/100000,2)</f>
         <v>338.11</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="12">
         <v>338.10999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3231201</v>
       </c>
@@ -1762,11 +1781,11 @@
       <c r="J24" s="2">
         <v>8298054</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="11">
         <f t="shared" si="0"/>
         <v>82.98</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="12">
         <v>82.98</v>
       </c>
       <c r="M24" t="str">
@@ -1774,7 +1793,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3211109</v>
       </c>
@@ -1805,11 +1824,11 @@
       <c r="J25" s="2">
         <v>348565</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="11">
         <f t="shared" si="0"/>
         <v>3.49</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="12">
         <v>3.49</v>
       </c>
       <c r="M25" t="str">
@@ -1817,7 +1836,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3256103</v>
       </c>
@@ -1848,11 +1867,11 @@
       <c r="J26" s="2">
         <v>299952</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="12">
         <v>3</v>
       </c>
       <c r="M26" t="str">
@@ -1860,7 +1879,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3257101</v>
       </c>
@@ -1891,19 +1910,23 @@
       <c r="J27" s="2">
         <v>45095488.280000001</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="15">
         <f t="shared" si="0"/>
         <v>450.95</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="20">
         <v>450</v>
       </c>
-      <c r="M27" s="5" t="str">
+      <c r="M27" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Not Ok</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="8">
+        <f>L27-K27</f>
+        <v>-0.94999999999998863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3111332</v>
       </c>
@@ -1934,7 +1957,7 @@
       <c r="J28" s="2">
         <v>381624</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="11">
         <f t="shared" si="0"/>
         <v>3.82</v>
       </c>
@@ -1946,7 +1969,7 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3111332</v>
       </c>
@@ -1977,7 +2000,7 @@
       <c r="J29" s="2">
         <v>0</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1989,7 +2012,7 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3111332</v>
       </c>
@@ -2020,7 +2043,7 @@
       <c r="J30" s="2">
         <v>0</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2032,7 +2055,7 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3257104</v>
       </c>
@@ -2063,11 +2086,11 @@
       <c r="J31" s="2">
         <v>2999826</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="12">
         <v>30</v>
       </c>
       <c r="M31" t="str">
@@ -2075,7 +2098,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3255101</v>
       </c>
@@ -2106,11 +2129,11 @@
       <c r="J32" s="2">
         <v>999775</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="12">
         <v>10</v>
       </c>
       <c r="M32" t="str">
@@ -2118,7 +2141,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3256101</v>
       </c>
@@ -2149,19 +2172,23 @@
       <c r="J33" s="2">
         <v>29998115</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="11">
         <f t="shared" si="0"/>
         <v>299.98</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="20">
         <v>299.95999999999998</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="1"/>
         <v>Not Ok</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N33" s="8">
+        <f>L33-K33</f>
+        <v>-2.0000000000038654E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -2192,11 +2219,11 @@
       <c r="J34" s="2">
         <v>154138598.43000001</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="11">
         <f t="shared" si="0"/>
         <v>1541.39</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="12">
         <f>SUM(L6:L33)</f>
         <v>1523.96</v>
       </c>
@@ -2205,7 +2232,7 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3258101</v>
       </c>
@@ -2236,11 +2263,11 @@
       <c r="J35" s="2">
         <v>1497069</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="11">
         <f t="shared" si="0"/>
         <v>14.97</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="12">
         <v>14.97</v>
       </c>
       <c r="M35" t="str">
@@ -2248,7 +2275,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3258102</v>
       </c>
@@ -2279,11 +2306,11 @@
       <c r="J36" s="2">
         <v>110900</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="11">
         <f t="shared" si="0"/>
         <v>1.1100000000000001</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="12">
         <v>1.1100000000000001</v>
       </c>
       <c r="M36" t="str">
@@ -2291,7 +2318,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3258103</v>
       </c>
@@ -2322,11 +2349,11 @@
       <c r="J37" s="2">
         <v>300062</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="12">
         <v>3</v>
       </c>
       <c r="M37" t="str">
@@ -2334,7 +2361,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3258105</v>
       </c>
@@ -2365,11 +2392,11 @@
       <c r="J38" s="2">
         <v>199278</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="11">
         <f t="shared" si="0"/>
         <v>1.99</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="12">
         <v>1.99</v>
       </c>
       <c r="M38" t="str">
@@ -2377,7 +2404,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3258107</v>
       </c>
@@ -2408,11 +2435,11 @@
       <c r="J39" s="2">
         <v>0</v>
       </c>
-      <c r="K39" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="11">
+      <c r="K39" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="12">
         <v>0</v>
       </c>
       <c r="M39" t="str">
@@ -2420,7 +2447,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3258106</v>
       </c>
@@ -2451,11 +2478,11 @@
       <c r="J40" s="2">
         <v>495300</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="11">
         <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="12">
         <v>4.95</v>
       </c>
       <c r="M40" t="str">
@@ -2463,7 +2490,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3258105</v>
       </c>
@@ -2494,11 +2521,11 @@
       <c r="J41" s="2">
         <v>199740</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="12">
         <v>2</v>
       </c>
       <c r="M41" t="str">
@@ -2506,7 +2533,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3258114</v>
       </c>
@@ -2537,11 +2564,11 @@
       <c r="J42" s="2">
         <v>3316937</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="11">
         <f t="shared" si="0"/>
         <v>33.17</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="12">
         <v>33.17</v>
       </c>
       <c r="M42" t="str">
@@ -2549,7 +2576,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3258128</v>
       </c>
@@ -2580,11 +2607,11 @@
       <c r="J43" s="2">
         <v>37887</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="11">
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="12">
         <v>0.38</v>
       </c>
       <c r="M43" t="str">
@@ -2592,7 +2619,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3258107</v>
       </c>
@@ -2623,19 +2650,23 @@
       <c r="J44" s="2">
         <v>0</v>
       </c>
-      <c r="K44" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="11">
+      <c r="K44" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="20">
         <v>1.49</v>
       </c>
-      <c r="M44" t="str">
+      <c r="M44" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Not Ok</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="8">
+        <f>L44-K44</f>
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
@@ -2666,11 +2697,11 @@
       <c r="J45" s="2">
         <v>6157173</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="11">
         <f t="shared" si="0"/>
         <v>61.57</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45" s="12">
         <f>SUM(L35:L44)</f>
         <v>63.06</v>
       </c>
@@ -2679,7 +2710,7 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
@@ -2710,11 +2741,11 @@
       <c r="J46" s="2">
         <v>161745770.43000001</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="11">
         <f>ROUND(J46/100000,2)</f>
         <v>1617.46</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="12">
         <v>1601.5200000000002</v>
       </c>
       <c r="M46" t="str">
@@ -2722,7 +2753,7 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4112101</v>
       </c>
@@ -2753,16 +2784,17 @@
       <c r="J47" s="2">
         <v>0</v>
       </c>
-      <c r="K47" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K47" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="12"/>
       <c r="M47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4112101</v>
       </c>
@@ -2793,16 +2825,17 @@
       <c r="J48" s="2">
         <v>0</v>
       </c>
-      <c r="K48" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K48" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="12"/>
       <c r="M48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4112102</v>
       </c>
@@ -2833,16 +2866,17 @@
       <c r="J49" s="2">
         <v>0</v>
       </c>
-      <c r="K49" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K49" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="12"/>
       <c r="M49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4112316</v>
       </c>
@@ -2873,16 +2907,17 @@
       <c r="J50" s="2">
         <v>0</v>
       </c>
-      <c r="K50" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K50" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="12"/>
       <c r="M50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4112316</v>
       </c>
@@ -2913,16 +2948,17 @@
       <c r="J51" s="2">
         <v>0</v>
       </c>
-      <c r="K51" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K51" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="12"/>
       <c r="M51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4112304</v>
       </c>
@@ -2953,16 +2989,17 @@
       <c r="J52" s="2">
         <v>0</v>
       </c>
-      <c r="K52" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K52" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="12"/>
       <c r="M52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4112304</v>
       </c>
@@ -2993,16 +3030,17 @@
       <c r="J53" s="2">
         <v>0</v>
       </c>
-      <c r="K53" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K53" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="12"/>
       <c r="M53" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4112304</v>
       </c>
@@ -3030,14 +3068,14 @@
       <c r="I54" s="2">
         <v>0</v>
       </c>
-      <c r="J54" s="12">
+      <c r="J54" s="13">
         <v>499565</v>
       </c>
-      <c r="K54" s="13">
+      <c r="K54" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L54" s="14">
+      <c r="L54" s="12">
         <v>5</v>
       </c>
       <c r="M54" t="str">
@@ -3045,7 +3083,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4112202</v>
       </c>
@@ -3073,20 +3111,20 @@
       <c r="I55" s="2">
         <v>0</v>
       </c>
-      <c r="J55" s="12">
-        <v>0</v>
-      </c>
-      <c r="K55" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="14"/>
+      <c r="J55" s="13">
+        <v>0</v>
+      </c>
+      <c r="K55" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="12"/>
       <c r="M55" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4112202</v>
       </c>
@@ -3114,20 +3152,20 @@
       <c r="I56" s="2">
         <v>0</v>
       </c>
-      <c r="J56" s="12">
-        <v>0</v>
-      </c>
-      <c r="K56" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="14"/>
+      <c r="J56" s="13">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="12"/>
       <c r="M56" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4112202</v>
       </c>
@@ -3155,20 +3193,20 @@
       <c r="I57" s="2">
         <v>0</v>
       </c>
-      <c r="J57" s="12">
-        <v>0</v>
-      </c>
-      <c r="K57" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="14"/>
+      <c r="J57" s="13">
+        <v>0</v>
+      </c>
+      <c r="K57" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="12"/>
       <c r="M57" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4112202</v>
       </c>
@@ -3196,20 +3234,20 @@
       <c r="I58" s="2">
         <v>0</v>
       </c>
-      <c r="J58" s="12">
-        <v>0</v>
-      </c>
-      <c r="K58" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="14"/>
+      <c r="J58" s="13">
+        <v>0</v>
+      </c>
+      <c r="K58" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="12"/>
       <c r="M58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4112314</v>
       </c>
@@ -3237,20 +3275,20 @@
       <c r="I59" s="2">
         <v>0</v>
       </c>
-      <c r="J59" s="12">
-        <v>0</v>
-      </c>
-      <c r="K59" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L59" s="14"/>
+      <c r="J59" s="13">
+        <v>0</v>
+      </c>
+      <c r="K59" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="12"/>
       <c r="M59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4112303</v>
       </c>
@@ -3278,14 +3316,14 @@
       <c r="I60" s="2">
         <v>0</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="13">
         <v>298761</v>
       </c>
-      <c r="K60" s="13">
+      <c r="K60" s="11">
         <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
-      <c r="L60" s="14">
+      <c r="L60" s="12">
         <v>2.99</v>
       </c>
       <c r="M60" t="str">
@@ -3293,7 +3331,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4141101</v>
       </c>
@@ -3321,10 +3359,10 @@
       <c r="I61" s="2">
         <v>0</v>
       </c>
-      <c r="J61" s="12">
+      <c r="J61" s="13">
         <v>100000000</v>
       </c>
-      <c r="K61" s="13">
+      <c r="K61" s="11">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
@@ -3336,7 +3374,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4111306</v>
       </c>
@@ -3364,14 +3402,14 @@
       <c r="I62" s="2">
         <v>0</v>
       </c>
-      <c r="J62" s="15">
+      <c r="J62" s="13">
         <v>15382867.119999999</v>
       </c>
-      <c r="K62" s="17">
+      <c r="K62" s="15">
         <f t="shared" si="0"/>
         <v>153.83000000000001</v>
       </c>
-      <c r="L62" s="18">
+      <c r="L62" s="16">
         <v>192.22</v>
       </c>
       <c r="M62" t="str">
@@ -3379,7 +3417,7 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4111307</v>
       </c>
@@ -3410,17 +3448,17 @@
       <c r="J63" s="2">
         <v>0</v>
       </c>
-      <c r="K63" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L63" s="14"/>
+      <c r="K63" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="12"/>
       <c r="M63" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4111307</v>
       </c>
@@ -3451,11 +3489,11 @@
       <c r="J64" s="2">
         <v>445169587.80000001</v>
       </c>
-      <c r="K64" s="17">
+      <c r="K64" s="15">
         <f t="shared" si="0"/>
         <v>4451.7</v>
       </c>
-      <c r="L64" s="19">
+      <c r="L64" s="17">
         <v>4075.2199999999993</v>
       </c>
       <c r="M64" t="str">
@@ -3463,7 +3501,7 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4111307</v>
       </c>
@@ -3494,11 +3532,11 @@
       <c r="J65" s="2">
         <v>244802791.52000001</v>
       </c>
-      <c r="K65" s="17">
+      <c r="K65" s="15">
         <f t="shared" si="0"/>
         <v>2448.0300000000002</v>
       </c>
-      <c r="L65" s="18">
+      <c r="L65" s="16">
         <v>2667.18</v>
       </c>
       <c r="M65" t="str">
@@ -3506,7 +3544,7 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4111201</v>
       </c>
@@ -3537,11 +3575,11 @@
       <c r="J66" s="2">
         <v>44084881.439999998</v>
       </c>
-      <c r="K66" s="17">
+      <c r="K66" s="15">
         <f t="shared" si="0"/>
         <v>440.85</v>
       </c>
-      <c r="L66" s="18">
+      <c r="L66" s="16">
         <v>726.54000000000008</v>
       </c>
       <c r="M66" t="str">
@@ -3549,7 +3587,7 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4111201</v>
       </c>
@@ -3580,11 +3618,11 @@
       <c r="J67" s="2">
         <v>56966225</v>
       </c>
-      <c r="K67" s="17">
+      <c r="K67" s="15">
         <f t="shared" ref="K67:K76" si="2">ROUND(J67/100000,2)</f>
         <v>569.66</v>
       </c>
-      <c r="L67" s="18">
+      <c r="L67" s="16">
         <v>253.65</v>
       </c>
       <c r="M67" t="str">
@@ -3592,7 +3630,7 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4111201</v>
       </c>
@@ -3623,11 +3661,11 @@
       <c r="J68" s="2">
         <v>8207366.5599999996</v>
       </c>
-      <c r="K68" s="17">
+      <c r="K68" s="15">
         <f t="shared" si="2"/>
         <v>82.07</v>
       </c>
-      <c r="L68" s="18">
+      <c r="L68" s="16">
         <v>179.67999999999995</v>
       </c>
       <c r="M68" t="str">
@@ -3635,7 +3673,7 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4111201</v>
       </c>
@@ -3666,11 +3704,11 @@
       <c r="J69" s="2">
         <v>285949056.91000003</v>
       </c>
-      <c r="K69" s="17">
+      <c r="K69" s="15">
         <f t="shared" si="2"/>
         <v>2859.49</v>
       </c>
-      <c r="L69" s="18">
+      <c r="L69" s="16">
         <v>2923.6099999999997</v>
       </c>
       <c r="M69" t="str">
@@ -3678,7 +3716,7 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4111201</v>
       </c>
@@ -3709,11 +3747,11 @@
       <c r="J70" s="2">
         <v>1000480.33</v>
       </c>
-      <c r="K70" s="17">
+      <c r="K70" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L70" s="18">
+      <c r="L70" s="16">
         <v>0</v>
       </c>
       <c r="M70" t="str">
@@ -3721,7 +3759,7 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4111201</v>
       </c>
@@ -3752,11 +3790,11 @@
       <c r="J71" s="2">
         <v>9331636.3699999992</v>
       </c>
-      <c r="K71" s="17">
+      <c r="K71" s="15">
         <f t="shared" si="2"/>
         <v>93.32</v>
       </c>
-      <c r="L71" s="18">
+      <c r="L71" s="16">
         <v>93.33</v>
       </c>
       <c r="M71" t="str">
@@ -3764,7 +3802,7 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4111201</v>
       </c>
@@ -3795,17 +3833,17 @@
       <c r="J72" s="2">
         <v>0</v>
       </c>
-      <c r="K72" s="13">
+      <c r="K72" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L72" s="14"/>
+      <c r="L72" s="12"/>
       <c r="M72" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>13</v>
       </c>
@@ -3836,17 +3874,17 @@
       <c r="J73" s="2">
         <v>1211693219.05</v>
       </c>
-      <c r="K73" s="13">
+      <c r="K73" s="11">
         <f t="shared" si="2"/>
         <v>12116.93</v>
       </c>
-      <c r="L73" s="14"/>
+      <c r="L73" s="12"/>
       <c r="M73" t="str">
         <f t="shared" si="3"/>
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1000001</v>
       </c>
@@ -3877,17 +3915,17 @@
       <c r="J74" s="2">
         <v>0</v>
       </c>
-      <c r="K74" s="13">
+      <c r="K74" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L74" s="14"/>
+      <c r="L74" s="12"/>
       <c r="M74" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1000002</v>
       </c>
@@ -3918,17 +3956,17 @@
       <c r="J75" s="2">
         <v>0</v>
       </c>
-      <c r="K75" s="13">
+      <c r="K75" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L75" s="14"/>
+      <c r="L75" s="12"/>
       <c r="M75" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>85</v>
       </c>
@@ -3959,18 +3997,18 @@
       <c r="J76" s="2">
         <v>1373438989.48</v>
       </c>
-      <c r="K76" s="13">
+      <c r="K76" s="11">
         <f t="shared" si="2"/>
         <v>13734.39</v>
       </c>
-      <c r="L76" s="20">
+      <c r="L76" s="18">
         <v>13720.94</v>
       </c>
       <c r="M76" t="str">
         <f t="shared" si="3"/>
         <v>Not Ok</v>
       </c>
-      <c r="N76" s="21">
+      <c r="N76" s="19">
         <f>L76-K76</f>
         <v>-13.449999999998909</v>
       </c>

--- a/Civilworks cost/Expenditure Check.xlsx
+++ b/Civilworks cost/Expenditure Check.xlsx
@@ -287,7 +287,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +315,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -361,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -384,25 +390,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -420,9 +413,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,9 +424,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -456,8 +443,13 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -740,28 +732,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" style="2" customWidth="1"/>
     <col min="3" max="8" width="21" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="12.140625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -788,14 +781,14 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="12"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3111302</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2">
@@ -819,10 +812,10 @@
       <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="22">
         <v>50000</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="10">
         <f>ROUND(J2/100000,2)</f>
         <v>0.5</v>
       </c>
@@ -838,7 +831,7 @@
       <c r="A3">
         <v>3111327</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2">
@@ -862,10 +855,10 @@
       <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="J3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
         <f t="shared" ref="K3:K66" si="0">ROUND(J3/100000,2)</f>
         <v>0</v>
       </c>
@@ -881,7 +874,7 @@
       <c r="A4">
         <v>3111338</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
@@ -905,10 +898,10 @@
       <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="22">
         <v>1399999</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -924,7 +917,7 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="2">
@@ -948,14 +941,14 @@
       <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="22">
         <v>1449999</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <f>SUM(L2:L4)</f>
         <v>14.5</v>
       </c>
@@ -968,7 +961,7 @@
       <c r="A6">
         <v>3241101</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2">
@@ -992,10 +985,10 @@
       <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="22">
         <v>1498117</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <f t="shared" si="0"/>
         <v>14.98</v>
       </c>
@@ -1011,7 +1004,7 @@
       <c r="A7">
         <v>3211129</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2">
@@ -1035,10 +1028,10 @@
       <c r="I7" s="2">
         <v>0</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="22">
         <v>3420840</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <f t="shared" si="0"/>
         <v>34.21</v>
       </c>
@@ -1054,7 +1047,7 @@
       <c r="A8">
         <v>3821103</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="2">
@@ -1078,30 +1071,30 @@
       <c r="I8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="2">
-        <v>19159791.149999999</v>
-      </c>
-      <c r="K8" s="21">
-        <f t="shared" si="0"/>
-        <v>191.6</v>
-      </c>
-      <c r="L8" s="7">
+      <c r="J8" s="22">
+        <v>17716127.649999999</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="shared" si="0"/>
+        <v>177.16</v>
+      </c>
+      <c r="L8" s="20">
         <v>177.18</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="1"/>
         <v>Not Ok</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <f>L8-K8</f>
-        <v>-14.419999999999987</v>
+        <v>2.0000000000010232E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3211119</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2">
@@ -1125,10 +1118,10 @@
       <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="22">
         <v>48480</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
@@ -1144,7 +1137,7 @@
       <c r="A10">
         <v>3211120</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="2">
@@ -1168,10 +1161,10 @@
       <c r="I10" s="2">
         <v>0</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="22">
         <v>7148</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1187,7 +1180,7 @@
       <c r="A11">
         <v>3211117</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="2">
@@ -1211,10 +1204,10 @@
       <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="22">
         <v>9855</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -1230,7 +1223,7 @@
       <c r="A12">
         <v>3221104</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="2">
@@ -1254,10 +1247,10 @@
       <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="22">
         <v>16877</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
@@ -1273,7 +1266,7 @@
       <c r="A13">
         <v>3211115</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="2">
@@ -1297,21 +1290,21 @@
       <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="22">
         <v>55515</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="13">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="20">
         <v>0.55000000000000004</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="1"/>
         <v>Not Ok</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <f>L13-K13</f>
         <v>-1.0000000000000009E-2</v>
       </c>
@@ -1320,7 +1313,7 @@
       <c r="A14">
         <v>3211113</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="2">
@@ -1344,10 +1337,10 @@
       <c r="I14" s="2">
         <v>0</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="22">
         <v>288819</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <f t="shared" si="0"/>
         <v>2.89</v>
       </c>
@@ -1363,7 +1356,7 @@
       <c r="A15">
         <v>3243102</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="2">
@@ -1387,30 +1380,30 @@
       <c r="I15" s="2">
         <v>0</v>
       </c>
-      <c r="J15" s="2">
-        <v>376148</v>
-      </c>
-      <c r="K15" s="21">
-        <f t="shared" si="0"/>
-        <v>3.76</v>
-      </c>
-      <c r="L15" s="7">
+      <c r="J15" s="22">
+        <v>402034</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="0"/>
         <v>4.0199999999999996</v>
       </c>
+      <c r="L15" s="20">
+        <v>4.0199999999999996</v>
+      </c>
       <c r="M15" t="str">
         <f t="shared" si="1"/>
-        <v>Not Ok</v>
-      </c>
-      <c r="N15" s="8">
+        <v/>
+      </c>
+      <c r="N15" s="7">
         <f>L15-K15</f>
-        <v>0.25999999999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3243101</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="2">
@@ -1434,30 +1427,30 @@
       <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="2">
-        <v>2444158</v>
-      </c>
-      <c r="K16" s="21">
-        <f t="shared" si="0"/>
-        <v>24.44</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="J16" s="22">
+        <v>2418272</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="0"/>
         <v>24.18</v>
       </c>
+      <c r="L16" s="20">
+        <v>24.18</v>
+      </c>
       <c r="M16" t="str">
         <f t="shared" si="1"/>
-        <v>Not Ok</v>
-      </c>
-      <c r="N16" s="8">
+        <v/>
+      </c>
+      <c r="N16" s="7">
         <f>L16-K16</f>
-        <v>-0.26000000000000156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3221108</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="2">
@@ -1481,10 +1474,10 @@
       <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="22">
         <v>90777</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <f t="shared" si="0"/>
         <v>0.91</v>
       </c>
@@ -1500,7 +1493,7 @@
       <c r="A18">
         <v>3255102</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2">
@@ -1524,10 +1517,10 @@
       <c r="I18" s="2">
         <v>0</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="22">
         <v>50007</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -1543,7 +1536,7 @@
       <c r="A19">
         <v>3255104</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="2">
@@ -1567,10 +1560,10 @@
       <c r="I19" s="2">
         <v>0</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="22">
         <v>1994980</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
@@ -1586,7 +1579,7 @@
       <c r="A20">
         <v>3211127</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2">
@@ -1610,10 +1603,10 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="22">
         <v>19629</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -1629,7 +1622,7 @@
       <c r="A21">
         <v>3231201</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="2">
@@ -1653,14 +1646,14 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="12">
+      <c r="J21" s="22">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
         <v>0</v>
       </c>
       <c r="M21" t="str">
@@ -1672,7 +1665,7 @@
       <c r="A22">
         <v>3231201</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="2">
@@ -1696,14 +1689,14 @@
       <c r="I22" s="2">
         <v>0</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="22">
         <v>2221000</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <f t="shared" si="0"/>
         <v>22.21</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="11">
         <v>22.21</v>
       </c>
       <c r="M22" t="str">
@@ -1715,7 +1708,7 @@
       <c r="A23">
         <v>3231201</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="2">
@@ -1739,14 +1732,14 @@
       <c r="I23" s="2">
         <v>0</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="22">
         <v>33811000</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="10">
         <f>ROUND(J23/100000,2)</f>
         <v>338.11</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="11">
         <v>338.10999999999996</v>
       </c>
     </row>
@@ -1754,7 +1747,7 @@
       <c r="A24">
         <v>3231201</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="2">
@@ -1778,14 +1771,14 @@
       <c r="I24" s="2">
         <v>0</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="22">
         <v>8298054</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="10">
         <f t="shared" si="0"/>
         <v>82.98</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="11">
         <v>82.98</v>
       </c>
       <c r="M24" t="str">
@@ -1797,7 +1790,7 @@
       <c r="A25">
         <v>3211109</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="2">
@@ -1821,14 +1814,14 @@
       <c r="I25" s="2">
         <v>0</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="22">
         <v>348565</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="10">
         <f t="shared" si="0"/>
         <v>3.49</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="11">
         <v>3.49</v>
       </c>
       <c r="M25" t="str">
@@ -1840,7 +1833,7 @@
       <c r="A26">
         <v>3256103</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="2">
@@ -1864,14 +1857,14 @@
       <c r="I26" s="2">
         <v>0</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="22">
         <v>299952</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="11">
         <v>3</v>
       </c>
       <c r="M26" t="str">
@@ -1883,7 +1876,7 @@
       <c r="A27">
         <v>3257101</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="2">
@@ -1904,33 +1897,33 @@
       <c r="H27" s="2">
         <v>0</v>
       </c>
-      <c r="I27" s="2">
-        <v>45095488.280000001</v>
-      </c>
-      <c r="J27" s="2">
-        <v>45095488.280000001</v>
-      </c>
-      <c r="K27" s="15">
-        <f t="shared" si="0"/>
-        <v>450.95</v>
-      </c>
-      <c r="L27" s="20">
+      <c r="I27" s="19">
+        <v>45000051.219999999</v>
+      </c>
+      <c r="J27" s="22">
+        <v>45000051.219999999</v>
+      </c>
+      <c r="K27" s="13">
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
+      <c r="L27" s="18">
+        <v>450</v>
+      </c>
       <c r="M27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Not Ok</v>
-      </c>
-      <c r="N27" s="8">
+        <v/>
+      </c>
+      <c r="N27" s="7">
         <f>L27-K27</f>
-        <v>-0.94999999999998863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3111332</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="2">
@@ -1954,10 +1947,10 @@
       <c r="I28" s="2">
         <v>0</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="22">
         <v>381624</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="10">
         <f t="shared" si="0"/>
         <v>3.82</v>
       </c>
@@ -1973,7 +1966,7 @@
       <c r="A29">
         <v>3111332</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="2">
@@ -1997,10 +1990,10 @@
       <c r="I29" s="2">
         <v>0</v>
       </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="11">
+      <c r="J29" s="22">
+        <v>0</v>
+      </c>
+      <c r="K29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2016,7 +2009,7 @@
       <c r="A30">
         <v>3111332</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="2">
@@ -2040,10 +2033,10 @@
       <c r="I30" s="2">
         <v>0</v>
       </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="11">
+      <c r="J30" s="22">
+        <v>0</v>
+      </c>
+      <c r="K30" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2059,7 +2052,7 @@
       <c r="A31">
         <v>3257104</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="2">
@@ -2083,14 +2076,14 @@
       <c r="I31" s="2">
         <v>0</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="22">
         <v>2999826</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="11">
         <v>30</v>
       </c>
       <c r="M31" t="str">
@@ -2102,7 +2095,7 @@
       <c r="A32">
         <v>3255101</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="2">
@@ -2126,14 +2119,14 @@
       <c r="I32" s="2">
         <v>0</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="22">
         <v>999775</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="11">
         <v>10</v>
       </c>
       <c r="M32" t="str">
@@ -2145,7 +2138,7 @@
       <c r="A33">
         <v>3256101</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="2">
@@ -2169,21 +2162,21 @@
       <c r="I33" s="2">
         <v>0</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="22">
         <v>29998115</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="10">
         <f t="shared" si="0"/>
         <v>299.98</v>
       </c>
-      <c r="L33" s="20">
+      <c r="L33" s="18">
         <v>299.95999999999998</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="1"/>
         <v>Not Ok</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="7">
         <f>L33-K33</f>
         <v>-2.0000000000038654E-2</v>
       </c>
@@ -2192,7 +2185,7 @@
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="2">
@@ -2216,14 +2209,14 @@
       <c r="I34" s="2">
         <v>45095488.280000001</v>
       </c>
-      <c r="J34" s="2">
-        <v>154138598.43000001</v>
-      </c>
-      <c r="K34" s="11">
-        <f t="shared" si="0"/>
-        <v>1541.39</v>
-      </c>
-      <c r="L34" s="12">
+      <c r="J34" s="22">
+        <v>152395439.87</v>
+      </c>
+      <c r="K34" s="10">
+        <f t="shared" si="0"/>
+        <v>1523.95</v>
+      </c>
+      <c r="L34" s="11">
         <f>SUM(L6:L33)</f>
         <v>1523.96</v>
       </c>
@@ -2236,7 +2229,7 @@
       <c r="A35">
         <v>3258101</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="2">
@@ -2260,14 +2253,14 @@
       <c r="I35" s="2">
         <v>0</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="22">
         <v>1497069</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="10">
         <f t="shared" si="0"/>
         <v>14.97</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="11">
         <v>14.97</v>
       </c>
       <c r="M35" t="str">
@@ -2279,7 +2272,7 @@
       <c r="A36">
         <v>3258102</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="2">
@@ -2303,14 +2296,14 @@
       <c r="I36" s="2">
         <v>0</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="22">
         <v>110900</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="10">
         <f t="shared" si="0"/>
         <v>1.1100000000000001</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="11">
         <v>1.1100000000000001</v>
       </c>
       <c r="M36" t="str">
@@ -2322,7 +2315,7 @@
       <c r="A37">
         <v>3258103</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="2">
@@ -2346,14 +2339,14 @@
       <c r="I37" s="2">
         <v>0</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="22">
         <v>300062</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37" s="11">
         <v>3</v>
       </c>
       <c r="M37" t="str">
@@ -2365,7 +2358,7 @@
       <c r="A38">
         <v>3258105</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="2">
@@ -2389,14 +2382,14 @@
       <c r="I38" s="2">
         <v>0</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="22">
         <v>199278</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="10">
         <f t="shared" si="0"/>
         <v>1.99</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="11">
         <v>1.99</v>
       </c>
       <c r="M38" t="str">
@@ -2408,7 +2401,7 @@
       <c r="A39">
         <v>3258107</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="2">
@@ -2432,14 +2425,14 @@
       <c r="I39" s="2">
         <v>0</v>
       </c>
-      <c r="J39" s="2">
-        <v>0</v>
-      </c>
-      <c r="K39" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="12">
+      <c r="J39" s="22">
+        <v>0</v>
+      </c>
+      <c r="K39" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="11">
         <v>0</v>
       </c>
       <c r="M39" t="str">
@@ -2451,7 +2444,7 @@
       <c r="A40">
         <v>3258106</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="2">
@@ -2475,14 +2468,14 @@
       <c r="I40" s="2">
         <v>0</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="22">
         <v>495300</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="10">
         <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L40" s="11">
         <v>4.95</v>
       </c>
       <c r="M40" t="str">
@@ -2494,7 +2487,7 @@
       <c r="A41">
         <v>3258105</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="2">
@@ -2518,14 +2511,14 @@
       <c r="I41" s="2">
         <v>0</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="22">
         <v>199740</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="11">
         <v>2</v>
       </c>
       <c r="M41" t="str">
@@ -2537,7 +2530,7 @@
       <c r="A42">
         <v>3258114</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="2">
@@ -2561,14 +2554,14 @@
       <c r="I42" s="2">
         <v>0</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="22">
         <v>3316937</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="10">
         <f t="shared" si="0"/>
         <v>33.17</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="11">
         <v>33.17</v>
       </c>
       <c r="M42" t="str">
@@ -2580,7 +2573,7 @@
       <c r="A43">
         <v>3258128</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C43" s="2">
@@ -2604,14 +2597,14 @@
       <c r="I43" s="2">
         <v>0</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="22">
         <v>37887</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K43" s="10">
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
-      <c r="L43" s="12">
+      <c r="L43" s="11">
         <v>0.38</v>
       </c>
       <c r="M43" t="str">
@@ -2623,7 +2616,7 @@
       <c r="A44">
         <v>3258107</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="2">
@@ -2647,30 +2640,30 @@
       <c r="I44" s="2">
         <v>0</v>
       </c>
-      <c r="J44" s="2">
-        <v>0</v>
-      </c>
-      <c r="K44" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="20">
+      <c r="J44" s="22">
+        <v>148800</v>
+      </c>
+      <c r="K44" s="10">
+        <f t="shared" si="0"/>
         <v>1.49</v>
       </c>
-      <c r="M44" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Not Ok</v>
-      </c>
-      <c r="N44" s="8">
+      <c r="L44" s="18">
+        <v>1.49</v>
+      </c>
+      <c r="M44" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N44" s="7">
         <f>L44-K44</f>
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="2">
@@ -2694,27 +2687,31 @@
       <c r="I45" s="2">
         <v>0</v>
       </c>
-      <c r="J45" s="2">
-        <v>6157173</v>
-      </c>
-      <c r="K45" s="11">
-        <f t="shared" si="0"/>
-        <v>61.57</v>
-      </c>
-      <c r="L45" s="12">
+      <c r="J45" s="22">
+        <v>6305973</v>
+      </c>
+      <c r="K45" s="10">
+        <f t="shared" si="0"/>
+        <v>63.06</v>
+      </c>
+      <c r="L45" s="11">
         <f>SUM(L35:L44)</f>
         <v>63.06</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" si="1"/>
-        <v>Not Ok</v>
+        <v/>
+      </c>
+      <c r="N45" s="21">
+        <f>L45-K45</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="2">
@@ -2738,14 +2735,14 @@
       <c r="I46" s="2">
         <v>45095488.280000001</v>
       </c>
-      <c r="J46" s="2">
-        <v>161745770.43000001</v>
-      </c>
-      <c r="K46" s="11">
+      <c r="J46" s="22">
+        <v>160002611.87</v>
+      </c>
+      <c r="K46" s="10">
         <f>ROUND(J46/100000,2)</f>
-        <v>1617.46</v>
-      </c>
-      <c r="L46" s="12">
+        <v>1600.03</v>
+      </c>
+      <c r="L46" s="11">
         <v>1601.5200000000002</v>
       </c>
       <c r="M46" t="str">
@@ -2757,7 +2754,7 @@
       <c r="A47">
         <v>4112101</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C47" s="2">
@@ -2781,14 +2778,14 @@
       <c r="I47" s="2">
         <v>0</v>
       </c>
-      <c r="J47" s="2">
-        <v>0</v>
-      </c>
-      <c r="K47" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="12"/>
+      <c r="J47" s="22">
+        <v>0</v>
+      </c>
+      <c r="K47" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="11"/>
       <c r="M47" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2798,7 +2795,7 @@
       <c r="A48">
         <v>4112101</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="2">
@@ -2822,14 +2819,14 @@
       <c r="I48" s="2">
         <v>0</v>
       </c>
-      <c r="J48" s="2">
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="12"/>
+      <c r="J48" s="22">
+        <v>0</v>
+      </c>
+      <c r="K48" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="11"/>
       <c r="M48" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2839,7 +2836,7 @@
       <c r="A49">
         <v>4112102</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="2">
@@ -2863,14 +2860,14 @@
       <c r="I49" s="2">
         <v>0</v>
       </c>
-      <c r="J49" s="2">
-        <v>0</v>
-      </c>
-      <c r="K49" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="12"/>
+      <c r="J49" s="22">
+        <v>0</v>
+      </c>
+      <c r="K49" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="11"/>
       <c r="M49" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2880,7 +2877,7 @@
       <c r="A50">
         <v>4112316</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="2">
@@ -2904,14 +2901,14 @@
       <c r="I50" s="2">
         <v>0</v>
       </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-      <c r="K50" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="12"/>
+      <c r="J50" s="22">
+        <v>0</v>
+      </c>
+      <c r="K50" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="11"/>
       <c r="M50" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2921,7 +2918,7 @@
       <c r="A51">
         <v>4112316</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="2">
@@ -2945,14 +2942,14 @@
       <c r="I51" s="2">
         <v>0</v>
       </c>
-      <c r="J51" s="2">
-        <v>0</v>
-      </c>
-      <c r="K51" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="12"/>
+      <c r="J51" s="22">
+        <v>0</v>
+      </c>
+      <c r="K51" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="11"/>
       <c r="M51" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2962,7 +2959,7 @@
       <c r="A52">
         <v>4112304</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="2">
@@ -2986,14 +2983,14 @@
       <c r="I52" s="2">
         <v>0</v>
       </c>
-      <c r="J52" s="2">
-        <v>0</v>
-      </c>
-      <c r="K52" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="12"/>
+      <c r="J52" s="22">
+        <v>0</v>
+      </c>
+      <c r="K52" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="11"/>
       <c r="M52" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3003,7 +3000,7 @@
       <c r="A53">
         <v>4112304</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="2">
@@ -3027,14 +3024,14 @@
       <c r="I53" s="2">
         <v>0</v>
       </c>
-      <c r="J53" s="2">
-        <v>0</v>
-      </c>
-      <c r="K53" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="12"/>
+      <c r="J53" s="22">
+        <v>0</v>
+      </c>
+      <c r="K53" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="11"/>
       <c r="M53" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3044,7 +3041,7 @@
       <c r="A54">
         <v>4112304</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="2">
@@ -3068,14 +3065,14 @@
       <c r="I54" s="2">
         <v>0</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J54" s="22">
         <v>499565</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K54" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L54" s="12">
+      <c r="L54" s="11">
         <v>5</v>
       </c>
       <c r="M54" t="str">
@@ -3087,7 +3084,7 @@
       <c r="A55">
         <v>4112202</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C55" s="2">
@@ -3111,14 +3108,14 @@
       <c r="I55" s="2">
         <v>0</v>
       </c>
-      <c r="J55" s="13">
-        <v>0</v>
-      </c>
-      <c r="K55" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="12"/>
+      <c r="J55" s="22">
+        <v>0</v>
+      </c>
+      <c r="K55" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="11"/>
       <c r="M55" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3128,7 +3125,7 @@
       <c r="A56">
         <v>4112202</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="2">
@@ -3152,14 +3149,14 @@
       <c r="I56" s="2">
         <v>0</v>
       </c>
-      <c r="J56" s="13">
-        <v>0</v>
-      </c>
-      <c r="K56" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="12"/>
+      <c r="J56" s="22">
+        <v>0</v>
+      </c>
+      <c r="K56" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="11"/>
       <c r="M56" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3169,7 +3166,7 @@
       <c r="A57">
         <v>4112202</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C57" s="2">
@@ -3193,14 +3190,14 @@
       <c r="I57" s="2">
         <v>0</v>
       </c>
-      <c r="J57" s="13">
-        <v>0</v>
-      </c>
-      <c r="K57" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="12"/>
+      <c r="J57" s="22">
+        <v>0</v>
+      </c>
+      <c r="K57" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="11"/>
       <c r="M57" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3210,7 +3207,7 @@
       <c r="A58">
         <v>4112202</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C58" s="2">
@@ -3234,14 +3231,14 @@
       <c r="I58" s="2">
         <v>0</v>
       </c>
-      <c r="J58" s="13">
-        <v>0</v>
-      </c>
-      <c r="K58" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="12"/>
+      <c r="J58" s="22">
+        <v>0</v>
+      </c>
+      <c r="K58" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="11"/>
       <c r="M58" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3251,7 +3248,7 @@
       <c r="A59">
         <v>4112314</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C59" s="2">
@@ -3275,14 +3272,14 @@
       <c r="I59" s="2">
         <v>0</v>
       </c>
-      <c r="J59" s="13">
-        <v>0</v>
-      </c>
-      <c r="K59" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L59" s="12"/>
+      <c r="J59" s="22">
+        <v>0</v>
+      </c>
+      <c r="K59" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="11"/>
       <c r="M59" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3292,7 +3289,7 @@
       <c r="A60">
         <v>4112303</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C60" s="2">
@@ -3316,14 +3313,14 @@
       <c r="I60" s="2">
         <v>0</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="22">
         <v>298761</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K60" s="10">
         <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
-      <c r="L60" s="12">
+      <c r="L60" s="11">
         <v>2.99</v>
       </c>
       <c r="M60" t="str">
@@ -3335,7 +3332,7 @@
       <c r="A61">
         <v>4141101</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="2">
@@ -3359,10 +3356,10 @@
       <c r="I61" s="2">
         <v>0</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J61" s="22">
         <v>100000000</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K61" s="10">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
@@ -3378,7 +3375,7 @@
       <c r="A62">
         <v>4111306</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="2">
@@ -3402,14 +3399,14 @@
       <c r="I62" s="2">
         <v>0</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J62" s="22">
         <v>15382867.119999999</v>
       </c>
-      <c r="K62" s="15">
+      <c r="K62" s="13">
         <f t="shared" si="0"/>
         <v>153.83000000000001</v>
       </c>
-      <c r="L62" s="16">
+      <c r="L62" s="14">
         <v>192.22</v>
       </c>
       <c r="M62" t="str">
@@ -3421,7 +3418,7 @@
       <c r="A63">
         <v>4111307</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="2">
@@ -3445,14 +3442,14 @@
       <c r="I63" s="2">
         <v>0</v>
       </c>
-      <c r="J63" s="2">
-        <v>0</v>
-      </c>
-      <c r="K63" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L63" s="12"/>
+      <c r="J63" s="22">
+        <v>0</v>
+      </c>
+      <c r="K63" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="11"/>
       <c r="M63" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3462,7 +3459,7 @@
       <c r="A64">
         <v>4111307</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C64" s="2">
@@ -3486,14 +3483,14 @@
       <c r="I64" s="2">
         <v>0</v>
       </c>
-      <c r="J64" s="2">
-        <v>445169587.80000001</v>
-      </c>
-      <c r="K64" s="15">
-        <f t="shared" si="0"/>
-        <v>4451.7</v>
-      </c>
-      <c r="L64" s="17">
+      <c r="J64" s="22">
+        <v>446145637.79000002</v>
+      </c>
+      <c r="K64" s="13">
+        <f t="shared" si="0"/>
+        <v>4461.46</v>
+      </c>
+      <c r="L64" s="15">
         <v>4075.2199999999993</v>
       </c>
       <c r="M64" t="str">
@@ -3501,11 +3498,11 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4111307</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C65" s="2">
@@ -3529,14 +3526,14 @@
       <c r="I65" s="2">
         <v>0</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="22">
         <v>244802791.52000001</v>
       </c>
-      <c r="K65" s="15">
+      <c r="K65" s="13">
         <f t="shared" si="0"/>
         <v>2448.0300000000002</v>
       </c>
-      <c r="L65" s="16">
+      <c r="L65" s="14">
         <v>2667.18</v>
       </c>
       <c r="M65" t="str">
@@ -3544,11 +3541,11 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4111201</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C66" s="2">
@@ -3572,14 +3569,14 @@
       <c r="I66" s="2">
         <v>0</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="22">
         <v>44084881.439999998</v>
       </c>
-      <c r="K66" s="15">
+      <c r="K66" s="13">
         <f t="shared" si="0"/>
         <v>440.85</v>
       </c>
-      <c r="L66" s="16">
+      <c r="L66" s="14">
         <v>726.54000000000008</v>
       </c>
       <c r="M66" t="str">
@@ -3587,11 +3584,11 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4111201</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C67" s="2">
@@ -3615,14 +3612,14 @@
       <c r="I67" s="2">
         <v>0</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="22">
         <v>56966225</v>
       </c>
-      <c r="K67" s="15">
+      <c r="K67" s="13">
         <f t="shared" ref="K67:K76" si="2">ROUND(J67/100000,2)</f>
         <v>569.66</v>
       </c>
-      <c r="L67" s="16">
+      <c r="L67" s="14">
         <v>253.65</v>
       </c>
       <c r="M67" t="str">
@@ -3630,11 +3627,11 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4111201</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C68" s="2">
@@ -3658,14 +3655,14 @@
       <c r="I68" s="2">
         <v>0</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="22">
         <v>8207366.5599999996</v>
       </c>
-      <c r="K68" s="15">
+      <c r="K68" s="13">
         <f t="shared" si="2"/>
         <v>82.07</v>
       </c>
-      <c r="L68" s="16">
+      <c r="L68" s="14">
         <v>179.67999999999995</v>
       </c>
       <c r="M68" t="str">
@@ -3673,11 +3670,11 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4111201</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C69" s="2">
@@ -3701,14 +3698,14 @@
       <c r="I69" s="2">
         <v>0</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="22">
         <v>285949056.91000003</v>
       </c>
-      <c r="K69" s="15">
+      <c r="K69" s="13">
         <f t="shared" si="2"/>
         <v>2859.49</v>
       </c>
-      <c r="L69" s="16">
+      <c r="L69" s="14">
         <v>2923.6099999999997</v>
       </c>
       <c r="M69" t="str">
@@ -3716,11 +3713,11 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4111201</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="2">
@@ -3744,14 +3741,14 @@
       <c r="I70" s="2">
         <v>0</v>
       </c>
-      <c r="J70" s="2">
-        <v>1000480.33</v>
-      </c>
-      <c r="K70" s="15">
+      <c r="J70" s="22">
+        <v>271598.23</v>
+      </c>
+      <c r="K70" s="13">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L70" s="16">
+        <v>2.72</v>
+      </c>
+      <c r="L70" s="14">
         <v>0</v>
       </c>
       <c r="M70" t="str">
@@ -3759,11 +3756,11 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4111201</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C71" s="2">
@@ -3787,14 +3784,14 @@
       <c r="I71" s="2">
         <v>0</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71" s="22">
         <v>9331636.3699999992</v>
       </c>
-      <c r="K71" s="15">
+      <c r="K71" s="13">
         <f t="shared" si="2"/>
         <v>93.32</v>
       </c>
-      <c r="L71" s="16">
+      <c r="L71" s="14">
         <v>93.33</v>
       </c>
       <c r="M71" t="str">
@@ -3802,11 +3799,11 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4111201</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C72" s="2">
@@ -3830,24 +3827,36 @@
       <c r="I72" s="2">
         <v>0</v>
       </c>
-      <c r="J72" s="2">
-        <v>0</v>
-      </c>
-      <c r="K72" s="11">
+      <c r="J72" s="22">
+        <v>0</v>
+      </c>
+      <c r="K72" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L72" s="12"/>
+      <c r="L72" s="11"/>
       <c r="M72" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N72" s="17">
+        <f>SUM(L62:L71)</f>
+        <v>11111.429999999998</v>
+      </c>
+      <c r="O72">
+        <f>SUM(K62:K71)</f>
+        <v>11111.429999999998</v>
+      </c>
+      <c r="P72" s="17">
+        <f>N72-O72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C73" s="2">
@@ -3871,24 +3880,24 @@
       <c r="I73" s="2">
         <v>0</v>
       </c>
-      <c r="J73" s="2">
-        <v>1211693219.05</v>
-      </c>
-      <c r="K73" s="11">
+      <c r="J73" s="22">
+        <v>1211940386.9400001</v>
+      </c>
+      <c r="K73" s="10">
         <f t="shared" si="2"/>
-        <v>12116.93</v>
-      </c>
-      <c r="L73" s="12"/>
+        <v>12119.4</v>
+      </c>
+      <c r="L73" s="11"/>
       <c r="M73" t="str">
         <f t="shared" si="3"/>
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1000001</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C74" s="2">
@@ -3912,24 +3921,24 @@
       <c r="I74" s="2">
         <v>0</v>
       </c>
-      <c r="J74" s="2">
-        <v>0</v>
-      </c>
-      <c r="K74" s="11">
+      <c r="J74" s="22">
+        <v>0</v>
+      </c>
+      <c r="K74" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L74" s="12"/>
+      <c r="L74" s="11"/>
       <c r="M74" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1000002</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C75" s="2">
@@ -3953,24 +3962,24 @@
       <c r="I75" s="2">
         <v>0</v>
       </c>
-      <c r="J75" s="2">
-        <v>0</v>
-      </c>
-      <c r="K75" s="11">
+      <c r="J75" s="22">
+        <v>0</v>
+      </c>
+      <c r="K75" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L75" s="12"/>
+      <c r="L75" s="11"/>
       <c r="M75" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C76" s="2">
@@ -3994,23 +4003,23 @@
       <c r="I76" s="2">
         <v>45095488.280000001</v>
       </c>
-      <c r="J76" s="2">
-        <v>1373438989.48</v>
-      </c>
-      <c r="K76" s="11">
+      <c r="J76" s="22">
+        <v>1372091798.8099999</v>
+      </c>
+      <c r="K76" s="10">
         <f t="shared" si="2"/>
-        <v>13734.39</v>
-      </c>
-      <c r="L76" s="18">
+        <v>13720.92</v>
+      </c>
+      <c r="L76" s="16">
         <v>13720.94</v>
       </c>
       <c r="M76" t="str">
         <f t="shared" si="3"/>
         <v>Not Ok</v>
       </c>
-      <c r="N76" s="19">
+      <c r="N76" s="17">
         <f>L76-K76</f>
-        <v>-13.449999999998909</v>
+        <v>2.0000000000436557E-2</v>
       </c>
     </row>
   </sheetData>
